--- a/lab3/sentence.xlsx
+++ b/lab3/sentence.xlsx
@@ -28,19 +28,19 @@
     <t>леля</t>
   </si>
   <si>
-    <t>стоит,глядит</t>
+    <t>стоит</t>
   </si>
   <si>
     <t>поле,облака</t>
   </si>
   <si>
-    <t>речка,залиты</t>
+    <t>залиты</t>
   </si>
   <si>
     <t>ветерок</t>
   </si>
   <si>
-    <t>нечего,рябит,шуршит</t>
+    <t>нечего</t>
   </si>
   <si>
     <t>тишина</t>
@@ -55,7 +55,7 @@
     <t>лицо,ее,тоски</t>
   </si>
   <si>
-    <t>грустно,темнеет,право,неделикатно,жестоко</t>
+    <t>грустно</t>
   </si>
 </sst>
 </file>
